--- a/results/datasetNearOne_polytree25.xlsx
+++ b/results/datasetNearOne_polytree25.xlsx
@@ -466,13 +466,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02500000000000017</v>
+        <v>0.03200000000000024</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9749999999999999</v>
+        <v>0.9679999999999997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1834566593170166</v>
+        <v>0.1930985450744629</v>
       </c>
     </row>
     <row r="3">
@@ -488,13 +488,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03800000000000029</v>
+        <v>0.03000000000000021</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9619999999999997</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2030770778656006</v>
+        <v>0.200465202331543</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02900000000000021</v>
+        <v>0.03000000000000021</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9709999999999999</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.2070791721343994</v>
       </c>
     </row>
     <row r="5">
@@ -532,13 +532,13 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02600000000000018</v>
+        <v>0.03300000000000024</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9739999999999999</v>
+        <v>0.9669999999999997</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1874566078186035</v>
+        <v>0.1941101551055908</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02700000000000019</v>
+        <v>0.02900000000000021</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9729999999999999</v>
+        <v>0.9709999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2030763626098633</v>
+        <v>0.2020559310913086</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02300000000000016</v>
+        <v>0.02500000000000017</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9769999999999999</v>
+        <v>0.9749999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2030782699584961</v>
+        <v>0.2206802368164062</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0280000000000002</v>
+        <v>0.02700000000000019</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9719999999999999</v>
+        <v>0.9729999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2239055633544922</v>
+        <v>0.2191126346588135</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02200000000000015</v>
+        <v>0.02500000000000017</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9779999999999999</v>
+        <v>0.9749999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1981704235076904</v>
+        <v>0.204918384552002</v>
       </c>
     </row>
     <row r="10">
@@ -642,13 +642,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02700000000000019</v>
+        <v>0.03100000000000023</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9729999999999999</v>
+        <v>0.9689999999999998</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2043924331665039</v>
+        <v>0.2047557830810547</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02300000000000016</v>
+        <v>0.03400000000000025</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9769999999999999</v>
+        <v>0.9659999999999997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1892526149749756</v>
+        <v>0.2010931968688965</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +686,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03200000000000024</v>
+        <v>0.02500000000000017</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9679999999999997</v>
+        <v>0.9749999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2030773162841797</v>
+        <v>0.1926648616790771</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03100000000000023</v>
+        <v>0.03200000000000024</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9689999999999998</v>
+        <v>0.9679999999999997</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1875004768371582</v>
+        <v>0.2023830413818359</v>
       </c>
     </row>
     <row r="14">
@@ -730,13 +730,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02400000000000016</v>
+        <v>0.03200000000000024</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9759999999999999</v>
+        <v>0.9679999999999997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2343153953552246</v>
+        <v>0.2003538608551025</v>
       </c>
     </row>
     <row r="15">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02700000000000019</v>
+        <v>0.03100000000000023</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9729999999999999</v>
+        <v>0.9689999999999998</v>
       </c>
       <c r="F15" t="n">
-        <v>0.187415599822998</v>
+        <v>0.2029342651367188</v>
       </c>
     </row>
     <row r="16">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02600000000000018</v>
+        <v>0.03300000000000024</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9739999999999999</v>
+        <v>0.9669999999999997</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.194328784942627</v>
       </c>
     </row>
     <row r="17">
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02900000000000021</v>
+        <v>0.02100000000000014</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9709999999999999</v>
+        <v>0.9789999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2030773162841797</v>
+        <v>0.2002449035644531</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02700000000000019</v>
+        <v>0.02300000000000016</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9729999999999999</v>
+        <v>0.9769999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2030770778656006</v>
+        <v>0.2029168605804443</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03200000000000024</v>
+        <v>0.02300000000000016</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9679999999999997</v>
+        <v>0.9769999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1874990463256836</v>
+        <v>0.1943926811218262</v>
       </c>
     </row>
     <row r="20">
@@ -868,7 +868,7 @@
         <v>0.9729999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2030341625213623</v>
+        <v>0.1962924003601074</v>
       </c>
     </row>
     <row r="21">
@@ -884,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03300000000000024</v>
+        <v>0.03000000000000021</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9669999999999997</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2030773162841797</v>
+        <v>0.2005112171173096</v>
       </c>
     </row>
     <row r="22">
@@ -906,13 +906,13 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03600000000000027</v>
+        <v>0.03300000000000024</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9639999999999997</v>
+        <v>0.9669999999999997</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1874556541442871</v>
+        <v>0.200465202331543</v>
       </c>
     </row>
     <row r="23">
@@ -928,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02500000000000017</v>
+        <v>0.02900000000000021</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9749999999999999</v>
+        <v>0.9709999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2030770778656006</v>
+        <v>0.185025691986084</v>
       </c>
     </row>
     <row r="24">
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02600000000000018</v>
+        <v>0.0390000000000003</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9739999999999999</v>
+        <v>0.9609999999999997</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1874563694000244</v>
+        <v>0.2030401229858398</v>
       </c>
     </row>
     <row r="25">
@@ -972,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03200000000000024</v>
+        <v>0.02200000000000015</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9679999999999997</v>
+        <v>0.9779999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1992731094360352</v>
+        <v>0.1929812431335449</v>
       </c>
     </row>
     <row r="26">
@@ -994,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03400000000000025</v>
+        <v>0.02700000000000019</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9659999999999997</v>
+        <v>0.9729999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2030773162841797</v>
+        <v>0.2035374641418457</v>
       </c>
     </row>
     <row r="27">
@@ -1016,13 +1016,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2294478363983952</v>
+        <v>0.183019688773458</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7705521636016047</v>
+        <v>0.816980311226542</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1874556541442871</v>
+        <v>0.2001543045043945</v>
       </c>
     </row>
     <row r="28">
@@ -1038,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.210317925740722</v>
+        <v>0.1958833150092912</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7896820742592781</v>
+        <v>0.8041166849907088</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2030773162841797</v>
+        <v>0.1953709125518799</v>
       </c>
     </row>
     <row r="29">
@@ -1060,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1963198521994993</v>
+        <v>0.1768387124872387</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8036801478005007</v>
+        <v>0.8231612875127613</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.19297194480896</v>
       </c>
     </row>
     <row r="30">
@@ -1082,13 +1082,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2121869307600798</v>
+        <v>0.1973592490498488</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7878130692399201</v>
+        <v>0.8026407509501512</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.2021956443786621</v>
       </c>
     </row>
     <row r="31">
@@ -1104,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1887721751017548</v>
+        <v>0.2055198131515064</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8112278248982452</v>
+        <v>0.7944801868484936</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2030773162841797</v>
+        <v>0.1865897178649902</v>
       </c>
     </row>
     <row r="32">
@@ -1126,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1917411693882822</v>
+        <v>0.1614579133344317</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8082588306117178</v>
+        <v>0.8385420866655682</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.1956079006195068</v>
       </c>
     </row>
     <row r="33">
@@ -1148,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.19859850668148</v>
+        <v>0.2162193457695631</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8014014933185201</v>
+        <v>0.7837806542304369</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2186992168426514</v>
+        <v>0.2005524635314941</v>
       </c>
     </row>
     <row r="34">
@@ -1170,13 +1170,13 @@
         <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0.243789788988176</v>
+        <v>0.2140778728313937</v>
       </c>
       <c r="E34" t="n">
-        <v>0.756210211011824</v>
+        <v>0.7859221271686062</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2300426959991455</v>
+        <v>0.1845242977142334</v>
       </c>
     </row>
     <row r="35">
@@ -1192,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2009064325890197</v>
+        <v>0.1635033302995343</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7990935674109803</v>
+        <v>0.8364966697004657</v>
       </c>
       <c r="F35" t="n">
-        <v>0.191408634185791</v>
+        <v>0.2005035877227783</v>
       </c>
     </row>
     <row r="36">
@@ -1214,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1872632416886749</v>
+        <v>0.1754028249966212</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8127367583113251</v>
+        <v>0.8245971750033788</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1989343166351318</v>
+        <v>0.2006289958953857</v>
       </c>
     </row>
     <row r="37">
@@ -1236,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1844819818628868</v>
+        <v>0.2024357400314738</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8155180181371131</v>
+        <v>0.7975642599685262</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1874034404754639</v>
+        <v>0.1904346942901611</v>
       </c>
     </row>
     <row r="38">
@@ -1258,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1988786425442636</v>
+        <v>0.1970577525286534</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8011213574557363</v>
+        <v>0.8029422474713466</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2030770778656006</v>
+        <v>0.1921916007995605</v>
       </c>
     </row>
     <row r="39">
@@ -1280,13 +1280,13 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1849708276673044</v>
+        <v>0.2151036068091985</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8150291723326956</v>
+        <v>0.7848963931908015</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1874566078186035</v>
+        <v>0.1926188468933105</v>
       </c>
     </row>
     <row r="40">
@@ -1302,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2172360552854621</v>
+        <v>0.2042057771814779</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7827639447145379</v>
+        <v>0.7957942228185221</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2030768394470215</v>
+        <v>0.1931037902832031</v>
       </c>
     </row>
     <row r="41">
@@ -1324,13 +1324,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1876005894465371</v>
+        <v>0.2107406245576351</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8123994105534629</v>
+        <v>0.789259375442365</v>
       </c>
       <c r="F41" t="n">
-        <v>0.187455415725708</v>
+        <v>0.2022819519042969</v>
       </c>
     </row>
     <row r="42">
@@ -1346,13 +1346,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2080733150352142</v>
+        <v>0.188108720600898</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7919266849647858</v>
+        <v>0.811891279399102</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2030773162841797</v>
+        <v>0.1807746887207031</v>
       </c>
     </row>
     <row r="43">
@@ -1368,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2028581446166607</v>
+        <v>0.2186155354094831</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7971418553833394</v>
+        <v>0.7813844645905169</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.1920425891876221</v>
       </c>
     </row>
     <row r="44">
@@ -1390,13 +1390,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1650823125334629</v>
+        <v>0.2000145276129893</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8349176874665371</v>
+        <v>0.7999854723870107</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2030770778656006</v>
+        <v>0.2006516456604004</v>
       </c>
     </row>
     <row r="45">
@@ -1412,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1807917917355648</v>
+        <v>0.1742648073822345</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8192082082644352</v>
+        <v>0.8257351926177655</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.1845612525939941</v>
       </c>
     </row>
     <row r="46">
@@ -1434,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1958544978751177</v>
+        <v>0.2081176420029976</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8041455021248823</v>
+        <v>0.7918823579970025</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2030770778656006</v>
+        <v>0.2006235122680664</v>
       </c>
     </row>
     <row r="47">
@@ -1456,13 +1456,13 @@
         <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1912672422458382</v>
+        <v>0.2264926462339047</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8087327577541618</v>
+        <v>0.7735073537660953</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1874990463256836</v>
+        <v>0.2080299854278564</v>
       </c>
     </row>
     <row r="48">
@@ -1478,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1947787014668373</v>
+        <v>0.1951153222924956</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8052212985331627</v>
+        <v>0.8048846777075044</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2030341625213623</v>
+        <v>0.1973910331726074</v>
       </c>
     </row>
     <row r="49">
@@ -1500,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1999378321313148</v>
+        <v>0.2173748670102271</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8000621678686852</v>
+        <v>0.7826251329897729</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.1961362361907959</v>
       </c>
     </row>
     <row r="50">
@@ -1522,13 +1522,13 @@
         <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1725764002470796</v>
+        <v>0.1603103812400535</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8274235997529203</v>
+        <v>0.8396896187599465</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.1847918033599854</v>
       </c>
     </row>
     <row r="51">
@@ -1544,13 +1544,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.165563509406462</v>
+        <v>0.1748453131677355</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8344364905935381</v>
+        <v>0.8251546868322645</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1874558925628662</v>
+        <v>0.2006428241729736</v>
       </c>
     </row>
     <row r="52">
@@ -1566,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="E52" t="n">
-        <v>0.968</v>
+        <v>0.962</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3506042957305908</v>
+        <v>0.3507177829742432</v>
       </c>
     </row>
     <row r="53">
@@ -1588,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.041</v>
+        <v>0.058</v>
       </c>
       <c r="E53" t="n">
-        <v>0.959</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3748693466186523</v>
+        <v>0.3344423770904541</v>
       </c>
     </row>
     <row r="54">
@@ -1610,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>0.063</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.991</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3318994045257568</v>
       </c>
     </row>
     <row r="55">
@@ -1632,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.159</v>
+        <v>0.041</v>
       </c>
       <c r="E55" t="n">
-        <v>0.841</v>
+        <v>0.959</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3280479907989502</v>
+        <v>0.3378124237060547</v>
       </c>
     </row>
     <row r="56">
@@ -1654,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>0.052</v>
+        <v>0.028</v>
       </c>
       <c r="E56" t="n">
-        <v>0.948</v>
+        <v>0.972</v>
       </c>
       <c r="F56" t="n">
-        <v>0.328047513961792</v>
+        <v>0.3481907844543457</v>
       </c>
     </row>
     <row r="57">
@@ -1676,13 +1676,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>0.023</v>
+        <v>0.039</v>
       </c>
       <c r="E57" t="n">
-        <v>0.977</v>
+        <v>0.961</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3280477523803711</v>
+        <v>0.3319988250732422</v>
       </c>
     </row>
     <row r="58">
@@ -1698,13 +1698,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E58" t="n">
-        <v>0.994</v>
+        <v>0.993</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3280479907989502</v>
+        <v>0.3590011596679688</v>
       </c>
     </row>
     <row r="59">
@@ -1720,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.021</v>
       </c>
       <c r="E59" t="n">
-        <v>0.928</v>
+        <v>0.979</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3380930423736572</v>
       </c>
     </row>
     <row r="60">
@@ -1742,13 +1742,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.038</v>
+        <v>0.103</v>
       </c>
       <c r="E60" t="n">
-        <v>0.962</v>
+        <v>0.897</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3280479907989502</v>
+        <v>0.3342907428741455</v>
       </c>
     </row>
     <row r="61">
@@ -1764,13 +1764,13 @@
         <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>0.035</v>
+        <v>0.005</v>
       </c>
       <c r="E61" t="n">
-        <v>0.965</v>
+        <v>0.995</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3417847156524658</v>
       </c>
     </row>
     <row r="62">
@@ -1786,13 +1786,13 @@
         <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="E62" t="n">
-        <v>0.993</v>
+        <v>0.984</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3280477523803711</v>
+        <v>0.3381152153015137</v>
       </c>
     </row>
     <row r="63">
@@ -1808,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="E63" t="n">
-        <v>0.969</v>
+        <v>0.986</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3436694145202637</v>
+        <v>0.3436360359191895</v>
       </c>
     </row>
     <row r="64">
@@ -1830,13 +1830,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>0.037</v>
+        <v>0.002</v>
       </c>
       <c r="E64" t="n">
-        <v>0.963</v>
+        <v>0.998</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3355691432952881</v>
       </c>
     </row>
     <row r="65">
@@ -1852,13 +1852,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>0.025</v>
+        <v>0.056</v>
       </c>
       <c r="E65" t="n">
-        <v>0.975</v>
+        <v>0.944</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3280477523803711</v>
+        <v>0.3340487480163574</v>
       </c>
     </row>
     <row r="66">
@@ -1874,13 +1874,13 @@
         <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>0.033</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.967</v>
+        <v>0.928</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3436694145202637</v>
+        <v>0.3339197635650635</v>
       </c>
     </row>
     <row r="67">
@@ -1896,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.958</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.328047513961792</v>
+        <v>0.3339791297912598</v>
       </c>
     </row>
     <row r="68">
@@ -1918,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="E68" t="n">
-        <v>0.991</v>
+        <v>0.944</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3341240882873535</v>
       </c>
     </row>
     <row r="69">
@@ -1940,13 +1940,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>0.044</v>
+        <v>0.078</v>
       </c>
       <c r="E69" t="n">
-        <v>0.956</v>
+        <v>0.922</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3436698913574219</v>
+        <v>0.3471441268920898</v>
       </c>
     </row>
     <row r="70">
@@ -1962,13 +1962,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>0.075</v>
+        <v>0.163</v>
       </c>
       <c r="E70" t="n">
-        <v>0.925</v>
+        <v>0.837</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3280470371246338</v>
+        <v>0.3411455154418945</v>
       </c>
     </row>
     <row r="71">
@@ -1984,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.028</v>
       </c>
       <c r="E71" t="n">
-        <v>0.93</v>
+        <v>0.972</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3445224761962891</v>
       </c>
     </row>
     <row r="72">
@@ -2006,13 +2006,13 @@
         <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="E72" t="n">
-        <v>0.931</v>
+        <v>0.996</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3335182666778564</v>
       </c>
     </row>
     <row r="73">
@@ -2028,13 +2028,13 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>0.062</v>
+        <v>0.004</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3280909061431885</v>
+        <v>0.3422839641571045</v>
       </c>
     </row>
     <row r="74">
@@ -2050,13 +2050,13 @@
         <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.893</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3436260223388672</v>
+        <v>0.3462748527526855</v>
       </c>
     </row>
     <row r="75">
@@ -2072,13 +2072,13 @@
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>0.036</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.964</v>
+        <v>0.991</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3280479907989502</v>
+        <v>0.3418648242950439</v>
       </c>
     </row>
     <row r="76">
@@ -2094,13 +2094,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>0.013</v>
+        <v>0.063</v>
       </c>
       <c r="E76" t="n">
-        <v>0.987</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3437139987945557</v>
+        <v>0.3359849452972412</v>
       </c>
     </row>
     <row r="77">
@@ -2116,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>0.161</v>
+        <v>0.147</v>
       </c>
       <c r="E77" t="n">
-        <v>0.839</v>
+        <v>0.853</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3436238765716553</v>
+        <v>0.3440508842468262</v>
       </c>
     </row>
     <row r="78">
@@ -2138,13 +2138,13 @@
         <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>0.189</v>
+        <v>0.187</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3436694145202637</v>
+        <v>0.342083215713501</v>
       </c>
     </row>
     <row r="79">
@@ -2160,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>0.172</v>
+        <v>0.193</v>
       </c>
       <c r="E79" t="n">
-        <v>0.828</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3368330001831055</v>
       </c>
     </row>
     <row r="80">
@@ -2182,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.28</v>
+        <v>0.149</v>
       </c>
       <c r="E80" t="n">
-        <v>0.72</v>
+        <v>0.851</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3540501594543457</v>
       </c>
     </row>
     <row r="81">
@@ -2204,13 +2204,13 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.235</v>
+        <v>0.185</v>
       </c>
       <c r="E81" t="n">
-        <v>0.765</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.343975305557251</v>
       </c>
     </row>
     <row r="82">
@@ -2226,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>0.17</v>
+        <v>0.302</v>
       </c>
       <c r="E82" t="n">
-        <v>0.83</v>
+        <v>0.698</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3436694145202637</v>
+        <v>0.3439199924468994</v>
       </c>
     </row>
     <row r="83">
@@ -2248,13 +2248,13 @@
         <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>0.123</v>
+        <v>0.133</v>
       </c>
       <c r="E83" t="n">
-        <v>0.877</v>
+        <v>0.867</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3444361686706543</v>
       </c>
     </row>
     <row r="84">
@@ -2270,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212</v>
+        <v>0.222</v>
       </c>
       <c r="E84" t="n">
-        <v>0.788</v>
+        <v>0.778</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3521451950073242</v>
       </c>
     </row>
     <row r="85">
@@ -2292,13 +2292,13 @@
         <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>0.122</v>
+        <v>0.167</v>
       </c>
       <c r="E85" t="n">
-        <v>0.878</v>
+        <v>0.833</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3280477523803711</v>
+        <v>0.3353097438812256</v>
       </c>
     </row>
     <row r="86">
@@ -2314,13 +2314,13 @@
         <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.362</v>
+        <v>0.15</v>
       </c>
       <c r="E86" t="n">
-        <v>0.638</v>
+        <v>0.85</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.342137336730957</v>
       </c>
     </row>
     <row r="87">
@@ -2336,13 +2336,13 @@
         <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.103</v>
+        <v>0.259</v>
       </c>
       <c r="E87" t="n">
-        <v>0.897</v>
+        <v>0.741</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.336190938949585</v>
       </c>
     </row>
     <row r="88">
@@ -2358,13 +2358,13 @@
         <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.272</v>
+        <v>0.211</v>
       </c>
       <c r="E88" t="n">
-        <v>0.728</v>
+        <v>0.789</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3449742794036865</v>
       </c>
     </row>
     <row r="89">
@@ -2380,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>0.216</v>
+        <v>0.42</v>
       </c>
       <c r="E89" t="n">
-        <v>0.784</v>
+        <v>0.58</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3414697647094727</v>
       </c>
     </row>
     <row r="90">
@@ -2402,13 +2402,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>0.233</v>
+        <v>0.216</v>
       </c>
       <c r="E90" t="n">
-        <v>0.767</v>
+        <v>0.784</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3354713916778564</v>
       </c>
     </row>
     <row r="91">
@@ -2424,13 +2424,13 @@
         <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>0.239</v>
+        <v>0.314</v>
       </c>
       <c r="E91" t="n">
-        <v>0.761</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3322718143463135</v>
       </c>
     </row>
     <row r="92">
@@ -2446,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223</v>
+        <v>0.162</v>
       </c>
       <c r="E92" t="n">
-        <v>0.777</v>
+        <v>0.838</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3280479907989502</v>
+        <v>0.3434534072875977</v>
       </c>
     </row>
     <row r="93">
@@ -2468,13 +2468,13 @@
         <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>0.211</v>
+        <v>0.184</v>
       </c>
       <c r="E93" t="n">
-        <v>0.789</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>0.359290599822998</v>
+        <v>0.3354771137237549</v>
       </c>
     </row>
     <row r="94">
@@ -2490,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.289</v>
+        <v>0.21</v>
       </c>
       <c r="E94" t="n">
-        <v>0.711</v>
+        <v>0.79</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3345468044281006</v>
       </c>
     </row>
     <row r="95">
@@ -2512,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="E95" t="n">
-        <v>0.79</v>
+        <v>0.98</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3347136974334717</v>
       </c>
     </row>
     <row r="96">
@@ -2534,13 +2534,13 @@
         <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>0.259</v>
+        <v>0.101</v>
       </c>
       <c r="E96" t="n">
-        <v>0.741</v>
+        <v>0.899</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3376021385192871</v>
       </c>
     </row>
     <row r="97">
@@ -2556,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219</v>
+        <v>0.256</v>
       </c>
       <c r="E97" t="n">
-        <v>0.781</v>
+        <v>0.744</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3436694145202637</v>
+        <v>0.3459334373474121</v>
       </c>
     </row>
     <row r="98">
@@ -2578,13 +2578,13 @@
         <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21</v>
+        <v>0.182</v>
       </c>
       <c r="E98" t="n">
-        <v>0.79</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>0.328047513961792</v>
+        <v>0.34767746925354</v>
       </c>
     </row>
     <row r="99">
@@ -2600,13 +2600,13 @@
         <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>0.259</v>
+        <v>0.079</v>
       </c>
       <c r="E99" t="n">
-        <v>0.741</v>
+        <v>0.921</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3397102355957031</v>
       </c>
     </row>
     <row r="100">
@@ -2622,13 +2622,13 @@
         <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>0.099</v>
+        <v>0.2</v>
       </c>
       <c r="E100" t="n">
-        <v>0.901</v>
+        <v>0.8</v>
       </c>
       <c r="F100" t="n">
-        <v>0.343712329864502</v>
+        <v>0.3335833549499512</v>
       </c>
     </row>
     <row r="101">
@@ -2644,13 +2644,13 @@
         <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>0.111</v>
+        <v>0.29</v>
       </c>
       <c r="E101" t="n">
-        <v>0.889</v>
+        <v>0.71</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3436257839202881</v>
+        <v>0.347057580947876</v>
       </c>
     </row>
     <row r="102">
@@ -2666,13 +2666,13 @@
         <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1108891108891109</v>
+        <v>0.03096903096903097</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8891108891108891</v>
+        <v>0.9690309690309691</v>
       </c>
       <c r="F102" t="n">
-        <v>33.4375</v>
+        <v>64.375</v>
       </c>
     </row>
     <row r="103">
@@ -2688,13 +2688,13 @@
         <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>0.09290709290709291</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9070929070929071</v>
+        <v>0.972027972027972</v>
       </c>
       <c r="F103" t="n">
-        <v>33.546875</v>
+        <v>65.90625</v>
       </c>
     </row>
     <row r="104">
@@ -2710,13 +2710,13 @@
         <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1178821178821179</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8821178821178821</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="F104" t="n">
-        <v>34.453125</v>
+        <v>64.6875</v>
       </c>
     </row>
     <row r="105">
@@ -2732,13 +2732,13 @@
         <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.03096903096903097</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8901098901098901</v>
+        <v>0.9690309690309691</v>
       </c>
       <c r="F105" t="n">
-        <v>33.40625</v>
+        <v>67.0625</v>
       </c>
     </row>
     <row r="106">
@@ -2754,13 +2754,13 @@
         <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0999000999000999</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9000999000999002</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="F106" t="n">
-        <v>34.5</v>
+        <v>69.671875</v>
       </c>
     </row>
     <row r="107">
@@ -2776,13 +2776,13 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08691308691308691</v>
+        <v>0.04295704295704296</v>
       </c>
       <c r="E107" t="n">
-        <v>0.913086913086913</v>
+        <v>0.9570429570429571</v>
       </c>
       <c r="F107" t="n">
-        <v>32.8125</v>
+        <v>66.90625</v>
       </c>
     </row>
     <row r="108">
@@ -2798,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>0.07892107892107893</v>
+        <v>0.03396603396603397</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9210789210789211</v>
+        <v>0.9660339660339661</v>
       </c>
       <c r="F108" t="n">
-        <v>34.203125</v>
+        <v>67.703125</v>
       </c>
     </row>
     <row r="109">
@@ -2820,13 +2820,13 @@
         <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1108891108891109</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8891108891108891</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="F109" t="n">
-        <v>33.578125</v>
+        <v>66.859375</v>
       </c>
     </row>
     <row r="110">
@@ -2842,13 +2842,13 @@
         <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.04695304695304695</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8901098901098901</v>
+        <v>0.9530469530469531</v>
       </c>
       <c r="F110" t="n">
-        <v>33.875</v>
+        <v>67.125</v>
       </c>
     </row>
     <row r="111">
@@ -2864,13 +2864,13 @@
         <v>25</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0899100899100899</v>
+        <v>0.03596403596403597</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9100899100899101</v>
+        <v>0.964035964035964</v>
       </c>
       <c r="F111" t="n">
-        <v>35</v>
+        <v>66.5625</v>
       </c>
     </row>
     <row r="112">
@@ -2886,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1168831168831169</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8831168831168831</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="F112" t="n">
-        <v>34.171875</v>
+        <v>67.265625</v>
       </c>
     </row>
     <row r="113">
@@ -2908,13 +2908,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0989010989010989</v>
+        <v>0.03196803196803197</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9010989010989011</v>
+        <v>0.968031968031968</v>
       </c>
       <c r="F113" t="n">
-        <v>34.15625</v>
+        <v>66.125</v>
       </c>
     </row>
     <row r="114">
@@ -2930,13 +2930,13 @@
         <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0969030969030969</v>
+        <v>0.05394605394605394</v>
       </c>
       <c r="E114" t="n">
-        <v>0.903096903096903</v>
+        <v>0.9460539460539461</v>
       </c>
       <c r="F114" t="n">
-        <v>33.25</v>
+        <v>66.125</v>
       </c>
     </row>
     <row r="115">
@@ -2952,13 +2952,13 @@
         <v>25</v>
       </c>
       <c r="D115" t="n">
-        <v>0.08091908091908091</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E115" t="n">
-        <v>0.919080919080919</v>
+        <v>0.961038961038961</v>
       </c>
       <c r="F115" t="n">
-        <v>34.265625</v>
+        <v>68.203125</v>
       </c>
     </row>
     <row r="116">
@@ -2974,13 +2974,13 @@
         <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="F116" t="n">
-        <v>34.640625</v>
+        <v>65.3125</v>
       </c>
     </row>
     <row r="117">
@@ -2996,13 +2996,13 @@
         <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.03396603396603397</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9660339660339661</v>
       </c>
       <c r="F117" t="n">
-        <v>34.671875</v>
+        <v>66.390625</v>
       </c>
     </row>
     <row r="118">
@@ -3018,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.03996003996003996</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9600399600399601</v>
       </c>
       <c r="F118" t="n">
-        <v>34.140625</v>
+        <v>67.5625</v>
       </c>
     </row>
     <row r="119">
@@ -3040,13 +3040,13 @@
         <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>0.06593406593406594</v>
+        <v>0.04995004995004995</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9340659340659341</v>
+        <v>0.9500499500499501</v>
       </c>
       <c r="F119" t="n">
-        <v>34.28125</v>
+        <v>64.984375</v>
       </c>
     </row>
     <row r="120">
@@ -3062,13 +3062,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.08491508491508491</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9150849150849151</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="F120" t="n">
-        <v>34.765625</v>
+        <v>67.375</v>
       </c>
     </row>
     <row r="121">
@@ -3084,13 +3084,13 @@
         <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1268731268731269</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8731268731268731</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="F121" t="n">
-        <v>33.421875</v>
+        <v>65.90625</v>
       </c>
     </row>
     <row r="122">
@@ -3106,13 +3106,13 @@
         <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>0.08491508491508491</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9150849150849151</v>
+        <v>0.961038961038961</v>
       </c>
       <c r="F122" t="n">
-        <v>34.671875</v>
+        <v>67.34375</v>
       </c>
     </row>
     <row r="123">
@@ -3128,13 +3128,13 @@
         <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0989010989010989</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9010989010989011</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="F123" t="n">
-        <v>33.65625</v>
+        <v>65.6875</v>
       </c>
     </row>
     <row r="124">
@@ -3150,13 +3150,13 @@
         <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08591408591408592</v>
+        <v>0.03096903096903097</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9140859140859141</v>
+        <v>0.9690309690309691</v>
       </c>
       <c r="F124" t="n">
-        <v>34.78125</v>
+        <v>64.859375</v>
       </c>
     </row>
     <row r="125">
@@ -3172,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1028971028971029</v>
+        <v>0.03996003996003996</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8971028971028971</v>
+        <v>0.9600399600399601</v>
       </c>
       <c r="F125" t="n">
-        <v>34</v>
+        <v>64.890625</v>
       </c>
     </row>
     <row r="126">
@@ -3194,13 +3194,13 @@
         <v>25</v>
       </c>
       <c r="D126" t="n">
-        <v>0.07792207792207792</v>
+        <v>0.02897102897102897</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9220779220779221</v>
+        <v>0.971028971028971</v>
       </c>
       <c r="F126" t="n">
-        <v>33.171875</v>
+        <v>65.8125</v>
       </c>
     </row>
     <row r="127">
@@ -3216,13 +3216,13 @@
         <v>25</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2627372627372627</v>
+        <v>0.2297702297702298</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7372627372627373</v>
+        <v>0.7702297702297702</v>
       </c>
       <c r="F127" t="n">
-        <v>34.40625</v>
+        <v>67.34375</v>
       </c>
     </row>
     <row r="128">
@@ -3238,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2647352647352647</v>
+        <v>0.2117882117882118</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7352647352647352</v>
+        <v>0.7882117882117882</v>
       </c>
       <c r="F128" t="n">
-        <v>35.265625</v>
+        <v>71.171875</v>
       </c>
     </row>
     <row r="129">
@@ -3260,13 +3260,13 @@
         <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.2397602397602398</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7602397602397603</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="F129" t="n">
-        <v>35.34375</v>
+        <v>66.546875</v>
       </c>
     </row>
     <row r="130">
@@ -3282,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2447552447552448</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7552447552447552</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="F130" t="n">
-        <v>35.5625</v>
+        <v>69.109375</v>
       </c>
     </row>
     <row r="131">
@@ -3304,13 +3304,13 @@
         <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2327672327672328</v>
+        <v>0.2017982017982018</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7672327672327672</v>
+        <v>0.7982017982017982</v>
       </c>
       <c r="F131" t="n">
-        <v>33.609375</v>
+        <v>68.53125</v>
       </c>
     </row>
     <row r="132">
@@ -3326,13 +3326,13 @@
         <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2317682317682318</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7682317682317682</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="F132" t="n">
-        <v>34.984375</v>
+        <v>69.171875</v>
       </c>
     </row>
     <row r="133">
@@ -3348,13 +3348,13 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2557442557442557</v>
+        <v>0.1938061938061938</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7442557442557443</v>
+        <v>0.8061938061938062</v>
       </c>
       <c r="F133" t="n">
-        <v>34.6875</v>
+        <v>68.328125</v>
       </c>
     </row>
     <row r="134">
@@ -3370,13 +3370,13 @@
         <v>25</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2407592407592408</v>
+        <v>0.1878121878121878</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7592407592407593</v>
+        <v>0.8121878121878122</v>
       </c>
       <c r="F134" t="n">
-        <v>35.90625</v>
+        <v>67.265625</v>
       </c>
     </row>
     <row r="135">
@@ -3392,13 +3392,13 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2537462537462538</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7462537462537463</v>
+        <v>0.7802197802197802</v>
       </c>
       <c r="F135" t="n">
-        <v>35.359375</v>
+        <v>69.109375</v>
       </c>
     </row>
     <row r="136">
@@ -3414,13 +3414,13 @@
         <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2547452547452547</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7452547452547452</v>
+        <v>0.7912087912087912</v>
       </c>
       <c r="F136" t="n">
-        <v>35.3125</v>
+        <v>66.828125</v>
       </c>
     </row>
     <row r="137">
@@ -3436,13 +3436,13 @@
         <v>25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2667332667332667</v>
+        <v>0.1898101898101898</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7332667332667333</v>
+        <v>0.8101898101898102</v>
       </c>
       <c r="F137" t="n">
-        <v>34.984375</v>
+        <v>69.40625</v>
       </c>
     </row>
     <row r="138">
@@ -3458,13 +3458,13 @@
         <v>25</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2257742257742258</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7742257742257742</v>
       </c>
       <c r="F138" t="n">
-        <v>34.953125</v>
+        <v>66.015625</v>
       </c>
     </row>
     <row r="139">
@@ -3480,13 +3480,13 @@
         <v>25</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2497502497502498</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7502497502497503</v>
+        <v>0.7622377622377622</v>
       </c>
       <c r="F139" t="n">
-        <v>35.046875</v>
+        <v>68.453125</v>
       </c>
     </row>
     <row r="140">
@@ -3502,13 +3502,13 @@
         <v>25</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2517482517482518</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7482517482517482</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="F140" t="n">
-        <v>35.421875</v>
+        <v>67.71875</v>
       </c>
     </row>
     <row r="141">
@@ -3524,13 +3524,13 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2607392607392607</v>
+        <v>0.2167832167832168</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7392607392607392</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="F141" t="n">
-        <v>33.703125</v>
+        <v>67.8125</v>
       </c>
     </row>
     <row r="142">
@@ -3546,13 +3546,13 @@
         <v>25</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2027972027972028</v>
+        <v>0.1898101898101898</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7972027972027972</v>
+        <v>0.8101898101898102</v>
       </c>
       <c r="F142" t="n">
-        <v>34.859375</v>
+        <v>68.28125</v>
       </c>
     </row>
     <row r="143">
@@ -3568,13 +3568,13 @@
         <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.1878121878121878</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7582417582417582</v>
+        <v>0.8121878121878122</v>
       </c>
       <c r="F143" t="n">
-        <v>34.984375</v>
+        <v>69.609375</v>
       </c>
     </row>
     <row r="144">
@@ -3590,13 +3590,13 @@
         <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2387612387612388</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7612387612387612</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="F144" t="n">
-        <v>35.65625</v>
+        <v>68.390625</v>
       </c>
     </row>
     <row r="145">
@@ -3612,13 +3612,13 @@
         <v>25</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2497502497502498</v>
+        <v>0.2167832167832168</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7502497502497503</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="F145" t="n">
-        <v>35.625</v>
+        <v>71.484375</v>
       </c>
     </row>
     <row r="146">
@@ -3634,13 +3634,13 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="E146" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="F146" t="n">
-        <v>34.78125</v>
+        <v>67.875</v>
       </c>
     </row>
     <row r="147">
@@ -3656,13 +3656,13 @@
         <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2697302697302698</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="E147" t="n">
-        <v>0.7302697302697303</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="F147" t="n">
-        <v>35.65625</v>
+        <v>67.96875</v>
       </c>
     </row>
     <row r="148">
@@ -3678,13 +3678,13 @@
         <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.2147852147852148</v>
       </c>
       <c r="E148" t="n">
-        <v>0.7532467532467533</v>
+        <v>0.7852147852147852</v>
       </c>
       <c r="F148" t="n">
-        <v>34.859375</v>
+        <v>69.1875</v>
       </c>
     </row>
     <row r="149">
@@ -3700,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2277722277722278</v>
+        <v>0.1928071928071928</v>
       </c>
       <c r="E149" t="n">
-        <v>0.7722277722277723</v>
+        <v>0.8071928071928072</v>
       </c>
       <c r="F149" t="n">
-        <v>35.328125</v>
+        <v>67.71875</v>
       </c>
     </row>
     <row r="150">
@@ -3722,13 +3722,13 @@
         <v>25</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2137862137862138</v>
+        <v>0.2277722277722278</v>
       </c>
       <c r="E150" t="n">
-        <v>0.7862137862137862</v>
+        <v>0.7722277722277723</v>
       </c>
       <c r="F150" t="n">
-        <v>33.546875</v>
+        <v>66.65625</v>
       </c>
     </row>
     <row r="151">
@@ -3744,13 +3744,13 @@
         <v>25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2257742257742258</v>
+        <v>0.1838161838161838</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7742257742257742</v>
+        <v>0.8161838161838162</v>
       </c>
       <c r="F151" t="n">
-        <v>34.203125</v>
+        <v>64.421875</v>
       </c>
     </row>
     <row r="152">
@@ -3766,13 +3766,13 @@
         <v>25</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1058941058941059</v>
+        <v>0.03696303696303696</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8941058941058941</v>
+        <v>0.9630369630369631</v>
       </c>
       <c r="F152" t="n">
-        <v>38.265625</v>
+        <v>74.96875</v>
       </c>
     </row>
     <row r="153">
@@ -3788,13 +3788,13 @@
         <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0939060939060939</v>
+        <v>0.03696303696303696</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9060939060939061</v>
+        <v>0.9630369630369631</v>
       </c>
       <c r="F153" t="n">
-        <v>38.734375</v>
+        <v>76.328125</v>
       </c>
     </row>
     <row r="154">
@@ -3810,13 +3810,13 @@
         <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0969030969030969</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="E154" t="n">
-        <v>0.903096903096903</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="F154" t="n">
-        <v>37.953125</v>
+        <v>74.953125</v>
       </c>
     </row>
     <row r="155">
@@ -3832,13 +3832,13 @@
         <v>25</v>
       </c>
       <c r="D155" t="n">
-        <v>0.08391608391608392</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="E155" t="n">
-        <v>0.916083916083916</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="F155" t="n">
-        <v>38.265625</v>
+        <v>76.859375</v>
       </c>
     </row>
     <row r="156">
@@ -3854,13 +3854,13 @@
         <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0919080919080919</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9080919080919081</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="F156" t="n">
-        <v>38.171875</v>
+        <v>75.078125</v>
       </c>
     </row>
     <row r="157">
@@ -3876,13 +3876,13 @@
         <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0979020979020979</v>
+        <v>0.04295704295704296</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9570429570429571</v>
       </c>
       <c r="F157" t="n">
-        <v>38.671875</v>
+        <v>76.015625</v>
       </c>
     </row>
     <row r="158">
@@ -3898,13 +3898,13 @@
         <v>25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0899100899100899</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9100899100899101</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="F158" t="n">
-        <v>37.59375</v>
+        <v>73.6875</v>
       </c>
     </row>
     <row r="159">
@@ -3920,13 +3920,13 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.08391608391608392</v>
+        <v>0.04295704295704296</v>
       </c>
       <c r="E159" t="n">
-        <v>0.916083916083916</v>
+        <v>0.9570429570429571</v>
       </c>
       <c r="F159" t="n">
-        <v>39.421875</v>
+        <v>75.703125</v>
       </c>
     </row>
     <row r="160">
@@ -3942,13 +3942,13 @@
         <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>0.07492507492507493</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9250749250749251</v>
+        <v>0.972027972027972</v>
       </c>
       <c r="F160" t="n">
-        <v>39.53125</v>
+        <v>76.125</v>
       </c>
     </row>
     <row r="161">
@@ -3964,13 +3964,13 @@
         <v>25</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0959040959040959</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9040959040959041</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="F161" t="n">
-        <v>39.640625</v>
+        <v>74.734375</v>
       </c>
     </row>
     <row r="162">
@@ -3986,13 +3986,13 @@
         <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0969030969030969</v>
+        <v>0.03596403596403597</v>
       </c>
       <c r="E162" t="n">
-        <v>0.903096903096903</v>
+        <v>0.964035964035964</v>
       </c>
       <c r="F162" t="n">
-        <v>38.234375</v>
+        <v>76.546875</v>
       </c>
     </row>
     <row r="163">
@@ -4008,13 +4008,13 @@
         <v>25</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0959040959040959</v>
+        <v>0.03096903096903097</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9040959040959041</v>
+        <v>0.9690309690309691</v>
       </c>
       <c r="F163" t="n">
-        <v>39.3125</v>
+        <v>75.875</v>
       </c>
     </row>
     <row r="164">
@@ -4030,13 +4030,13 @@
         <v>25</v>
       </c>
       <c r="D164" t="n">
-        <v>0.08891108891108891</v>
+        <v>0.03796203796203796</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9110889110889111</v>
+        <v>0.962037962037962</v>
       </c>
       <c r="F164" t="n">
-        <v>39.515625</v>
+        <v>75.96875</v>
       </c>
     </row>
     <row r="165">
@@ -4052,13 +4052,13 @@
         <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="E165" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="F165" t="n">
-        <v>39.265625</v>
+        <v>77.46875</v>
       </c>
     </row>
     <row r="166">
@@ -4074,13 +4074,13 @@
         <v>25</v>
       </c>
       <c r="D166" t="n">
-        <v>0.09490509490509491</v>
+        <v>0.04295704295704296</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9050949050949051</v>
+        <v>0.9570429570429571</v>
       </c>
       <c r="F166" t="n">
-        <v>39.6875</v>
+        <v>75.65625</v>
       </c>
     </row>
     <row r="167">
@@ -4096,13 +4096,13 @@
         <v>25</v>
       </c>
       <c r="D167" t="n">
-        <v>0.08191808191808192</v>
+        <v>0.03096903096903097</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9180819180819181</v>
+        <v>0.9690309690309691</v>
       </c>
       <c r="F167" t="n">
-        <v>39.46875</v>
+        <v>75.65625</v>
       </c>
     </row>
     <row r="168">
@@ -4118,13 +4118,13 @@
         <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1078921078921079</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8921078921078921</v>
+        <v>0.958041958041958</v>
       </c>
       <c r="F168" t="n">
-        <v>40.09375</v>
+        <v>75.046875</v>
       </c>
     </row>
     <row r="169">
@@ -4140,13 +4140,13 @@
         <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>0.07592407592407592</v>
+        <v>0.02297702297702298</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9240759240759241</v>
+        <v>0.977022977022977</v>
       </c>
       <c r="F169" t="n">
-        <v>38.75</v>
+        <v>75.125</v>
       </c>
     </row>
     <row r="170">
@@ -4162,13 +4162,13 @@
         <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.07592407592407592</v>
+        <v>0.03396603396603397</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9240759240759241</v>
+        <v>0.9660339660339661</v>
       </c>
       <c r="F170" t="n">
-        <v>39</v>
+        <v>74.71875</v>
       </c>
     </row>
     <row r="171">
@@ -4184,13 +4184,13 @@
         <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.03196803196803197</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.968031968031968</v>
       </c>
       <c r="F171" t="n">
-        <v>38.359375</v>
+        <v>77.3125</v>
       </c>
     </row>
     <row r="172">
@@ -4206,13 +4206,13 @@
         <v>25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0899100899100899</v>
+        <v>0.02397602397602398</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9100899100899101</v>
+        <v>0.9760239760239761</v>
       </c>
       <c r="F172" t="n">
-        <v>38.703125</v>
+        <v>76.796875</v>
       </c>
     </row>
     <row r="173">
@@ -4228,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1008991008991009</v>
+        <v>0.04095904095904096</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8991008991008991</v>
+        <v>0.9590409590409591</v>
       </c>
       <c r="F173" t="n">
-        <v>37.453125</v>
+        <v>75.8125</v>
       </c>
     </row>
     <row r="174">
@@ -4250,13 +4250,13 @@
         <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>0.08791208791208792</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9120879120879121</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="F174" t="n">
-        <v>38.734375</v>
+        <v>76.15625</v>
       </c>
     </row>
     <row r="175">
@@ -4272,13 +4272,13 @@
         <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>0.0919080919080919</v>
+        <v>0.03396603396603397</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9080919080919081</v>
+        <v>0.9660339660339661</v>
       </c>
       <c r="F175" t="n">
-        <v>38.34375</v>
+        <v>73.484375</v>
       </c>
     </row>
     <row r="176">
@@ -4294,13 +4294,13 @@
         <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>0.08391608391608392</v>
+        <v>0.03696303696303696</v>
       </c>
       <c r="E176" t="n">
-        <v>0.916083916083916</v>
+        <v>0.9630369630369631</v>
       </c>
       <c r="F176" t="n">
-        <v>38.9375</v>
+        <v>73.359375</v>
       </c>
     </row>
     <row r="177">
@@ -4316,13 +4316,13 @@
         <v>25</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2157842157842158</v>
+        <v>0.1908091908091908</v>
       </c>
       <c r="E177" t="n">
-        <v>0.7842157842157842</v>
+        <v>0.8091908091908092</v>
       </c>
       <c r="F177" t="n">
-        <v>40.0625</v>
+        <v>75.9375</v>
       </c>
     </row>
     <row r="178">
@@ -4338,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2387612387612388</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="E178" t="n">
-        <v>0.7612387612387612</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="F178" t="n">
-        <v>38.296875</v>
+        <v>77.546875</v>
       </c>
     </row>
     <row r="179">
@@ -4360,13 +4360,13 @@
         <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2397602397602398</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7602397602397603</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="F179" t="n">
-        <v>38.921875</v>
+        <v>77.65625</v>
       </c>
     </row>
     <row r="180">
@@ -4382,13 +4382,13 @@
         <v>25</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2667332667332667</v>
+        <v>0.1968031968031968</v>
       </c>
       <c r="E180" t="n">
-        <v>0.7332667332667333</v>
+        <v>0.8031968031968032</v>
       </c>
       <c r="F180" t="n">
-        <v>39.3125</v>
+        <v>75.9375</v>
       </c>
     </row>
     <row r="181">
@@ -4404,13 +4404,13 @@
         <v>25</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2257742257742258</v>
+        <v>0.2127872127872128</v>
       </c>
       <c r="E181" t="n">
-        <v>0.7742257742257742</v>
+        <v>0.7872127872127872</v>
       </c>
       <c r="F181" t="n">
-        <v>39.734375</v>
+        <v>78.265625</v>
       </c>
     </row>
     <row r="182">
@@ -4426,13 +4426,13 @@
         <v>25</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2487512487512487</v>
+        <v>0.1908091908091908</v>
       </c>
       <c r="E182" t="n">
-        <v>0.7512487512487512</v>
+        <v>0.8091908091908092</v>
       </c>
       <c r="F182" t="n">
-        <v>39.828125</v>
+        <v>76.09375</v>
       </c>
     </row>
     <row r="183">
@@ -4448,13 +4448,13 @@
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2207792207792208</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="E183" t="n">
-        <v>0.7792207792207793</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="F183" t="n">
-        <v>39.078125</v>
+        <v>78.15625</v>
       </c>
     </row>
     <row r="184">
@@ -4470,13 +4470,13 @@
         <v>25</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2257742257742258</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="E184" t="n">
-        <v>0.7742257742257742</v>
+        <v>0.8021978021978022</v>
       </c>
       <c r="F184" t="n">
-        <v>40.703125</v>
+        <v>76.140625</v>
       </c>
     </row>
     <row r="185">
@@ -4492,13 +4492,13 @@
         <v>25</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2327672327672328</v>
+        <v>0.1938061938061938</v>
       </c>
       <c r="E185" t="n">
-        <v>0.7672327672327672</v>
+        <v>0.8061938061938062</v>
       </c>
       <c r="F185" t="n">
-        <v>39.4375</v>
+        <v>78.46875</v>
       </c>
     </row>
     <row r="186">
@@ -4514,13 +4514,13 @@
         <v>25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2477522477522477</v>
+        <v>0.2117882117882118</v>
       </c>
       <c r="E186" t="n">
-        <v>0.7522477522477522</v>
+        <v>0.7882117882117882</v>
       </c>
       <c r="F186" t="n">
-        <v>40.234375</v>
+        <v>75.8125</v>
       </c>
     </row>
     <row r="187">
@@ -4536,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2257742257742258</v>
+        <v>0.1928071928071928</v>
       </c>
       <c r="E187" t="n">
-        <v>0.7742257742257742</v>
+        <v>0.8071928071928072</v>
       </c>
       <c r="F187" t="n">
-        <v>39.890625</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="188">
@@ -4558,13 +4558,13 @@
         <v>25</v>
       </c>
       <c r="D188" t="n">
-        <v>0.2577422577422577</v>
+        <v>0.2007992007992008</v>
       </c>
       <c r="E188" t="n">
-        <v>0.7422577422577422</v>
+        <v>0.7992007992007992</v>
       </c>
       <c r="F188" t="n">
-        <v>39.859375</v>
+        <v>77.640625</v>
       </c>
     </row>
     <row r="189">
@@ -4580,13 +4580,13 @@
         <v>25</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2477522477522477</v>
+        <v>0.2147852147852148</v>
       </c>
       <c r="E189" t="n">
-        <v>0.7522477522477522</v>
+        <v>0.7852147852147852</v>
       </c>
       <c r="F189" t="n">
-        <v>39.21875</v>
+        <v>77.359375</v>
       </c>
     </row>
     <row r="190">
@@ -4602,13 +4602,13 @@
         <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2327672327672328</v>
+        <v>0.1928071928071928</v>
       </c>
       <c r="E190" t="n">
-        <v>0.7672327672327672</v>
+        <v>0.8071928071928072</v>
       </c>
       <c r="F190" t="n">
-        <v>39.25</v>
+        <v>76.171875</v>
       </c>
     </row>
     <row r="191">
@@ -4624,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>0.2367632367632368</v>
+        <v>0.1928071928071928</v>
       </c>
       <c r="E191" t="n">
-        <v>0.7632367632367633</v>
+        <v>0.8071928071928072</v>
       </c>
       <c r="F191" t="n">
-        <v>38.671875</v>
+        <v>78.734375</v>
       </c>
     </row>
     <row r="192">
@@ -4646,13 +4646,13 @@
         <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>0.2457542457542458</v>
+        <v>0.1858141858141858</v>
       </c>
       <c r="E192" t="n">
-        <v>0.7542457542457542</v>
+        <v>0.8141858141858141</v>
       </c>
       <c r="F192" t="n">
-        <v>38.390625</v>
+        <v>76.515625</v>
       </c>
     </row>
     <row r="193">
@@ -4668,13 +4668,13 @@
         <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2267732267732268</v>
+        <v>0.2007992007992008</v>
       </c>
       <c r="E193" t="n">
-        <v>0.7732267732267732</v>
+        <v>0.7992007992007992</v>
       </c>
       <c r="F193" t="n">
-        <v>39.59375</v>
+        <v>77.859375</v>
       </c>
     </row>
     <row r="194">
@@ -4690,13 +4690,13 @@
         <v>25</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2037962037962038</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="E194" t="n">
-        <v>0.7962037962037962</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="F194" t="n">
-        <v>39.78125</v>
+        <v>75.9375</v>
       </c>
     </row>
     <row r="195">
@@ -4712,13 +4712,13 @@
         <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2647352647352647</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="E195" t="n">
-        <v>0.7352647352647352</v>
+        <v>0.8131868131868132</v>
       </c>
       <c r="F195" t="n">
-        <v>39.25</v>
+        <v>74.9375</v>
       </c>
     </row>
     <row r="196">
@@ -4734,13 +4734,13 @@
         <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>0.2627372627372627</v>
+        <v>0.1898101898101898</v>
       </c>
       <c r="E196" t="n">
-        <v>0.7372627372627373</v>
+        <v>0.8101898101898102</v>
       </c>
       <c r="F196" t="n">
-        <v>39.25</v>
+        <v>76.203125</v>
       </c>
     </row>
     <row r="197">
@@ -4756,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2387612387612388</v>
+        <v>0.2067932067932068</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7612387612387612</v>
+        <v>0.7932067932067932</v>
       </c>
       <c r="F197" t="n">
-        <v>40.078125</v>
+        <v>77.046875</v>
       </c>
     </row>
     <row r="198">
@@ -4778,13 +4778,13 @@
         <v>25</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.2187812187812188</v>
       </c>
       <c r="E198" t="n">
-        <v>0.7582417582417582</v>
+        <v>0.7812187812187812</v>
       </c>
       <c r="F198" t="n">
-        <v>38.375</v>
+        <v>77.421875</v>
       </c>
     </row>
     <row r="199">
@@ -4800,13 +4800,13 @@
         <v>25</v>
       </c>
       <c r="D199" t="n">
-        <v>0.2287712287712288</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="E199" t="n">
-        <v>0.7712287712287712</v>
+        <v>0.7762237762237763</v>
       </c>
       <c r="F199" t="n">
-        <v>40.15625</v>
+        <v>76.21875</v>
       </c>
     </row>
     <row r="200">
@@ -4822,13 +4822,13 @@
         <v>25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2327672327672328</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="E200" t="n">
-        <v>0.7672327672327672</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="F200" t="n">
-        <v>39.234375</v>
+        <v>76.671875</v>
       </c>
     </row>
     <row r="201">
@@ -4844,13 +4844,13 @@
         <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>0.2537462537462538</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="E201" t="n">
-        <v>0.7462537462537463</v>
+        <v>0.7802197802197802</v>
       </c>
       <c r="F201" t="n">
-        <v>39.546875</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="202">
@@ -4866,13 +4866,13 @@
         <v>25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="E202" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="F202" t="n">
-        <v>43.53125</v>
+        <v>84.625</v>
       </c>
     </row>
     <row r="203">
@@ -4888,13 +4888,13 @@
         <v>25</v>
       </c>
       <c r="D203" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.03096903096903097</v>
       </c>
       <c r="E203" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9690309690309691</v>
       </c>
       <c r="F203" t="n">
-        <v>43.515625</v>
+        <v>84.1875</v>
       </c>
     </row>
     <row r="204">
@@ -4910,13 +4910,13 @@
         <v>25</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0999000999000999</v>
+        <v>0.04095904095904096</v>
       </c>
       <c r="E204" t="n">
-        <v>0.9000999000999002</v>
+        <v>0.9590409590409591</v>
       </c>
       <c r="F204" t="n">
-        <v>43.546875</v>
+        <v>83.734375</v>
       </c>
     </row>
     <row r="205">
@@ -4932,13 +4932,13 @@
         <v>25</v>
       </c>
       <c r="D205" t="n">
-        <v>0.08691308691308691</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="E205" t="n">
-        <v>0.913086913086913</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="F205" t="n">
-        <v>43.421875</v>
+        <v>86.09375</v>
       </c>
     </row>
     <row r="206">
@@ -4954,13 +4954,13 @@
         <v>25</v>
       </c>
       <c r="D206" t="n">
-        <v>0.08691308691308691</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="E206" t="n">
-        <v>0.913086913086913</v>
+        <v>0.9560439560439561</v>
       </c>
       <c r="F206" t="n">
-        <v>43.34375</v>
+        <v>83.671875</v>
       </c>
     </row>
     <row r="207">
@@ -4976,13 +4976,13 @@
         <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0959040959040959</v>
+        <v>0.03196803196803197</v>
       </c>
       <c r="E207" t="n">
-        <v>0.9040959040959041</v>
+        <v>0.968031968031968</v>
       </c>
       <c r="F207" t="n">
-        <v>43.5625</v>
+        <v>83.546875</v>
       </c>
     </row>
     <row r="208">
@@ -4998,13 +4998,13 @@
         <v>25</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0959040959040959</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="E208" t="n">
-        <v>0.9040959040959041</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="F208" t="n">
-        <v>43.484375</v>
+        <v>85.296875</v>
       </c>
     </row>
     <row r="209">
@@ -5020,13 +5020,13 @@
         <v>25</v>
       </c>
       <c r="D209" t="n">
-        <v>0.08891108891108891</v>
+        <v>0.02397602397602398</v>
       </c>
       <c r="E209" t="n">
-        <v>0.9110889110889111</v>
+        <v>0.9760239760239761</v>
       </c>
       <c r="F209" t="n">
-        <v>43.90625</v>
+        <v>84.140625</v>
       </c>
     </row>
     <row r="210">
@@ -5042,13 +5042,13 @@
         <v>25</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.03396603396603397</v>
       </c>
       <c r="E210" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.9660339660339661</v>
       </c>
       <c r="F210" t="n">
-        <v>44.34375</v>
+        <v>84.859375</v>
       </c>
     </row>
     <row r="211">
@@ -5064,13 +5064,13 @@
         <v>25</v>
       </c>
       <c r="D211" t="n">
-        <v>0.08291708291708291</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="E211" t="n">
-        <v>0.9170829170829171</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="F211" t="n">
-        <v>43.34375</v>
+        <v>86.046875</v>
       </c>
     </row>
     <row r="212">
@@ -5086,13 +5086,13 @@
         <v>25</v>
       </c>
       <c r="D212" t="n">
-        <v>0.07892107892107893</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9210789210789211</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="F212" t="n">
-        <v>42.640625</v>
+        <v>86.03125</v>
       </c>
     </row>
     <row r="213">
@@ -5108,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>0.0959040959040959</v>
+        <v>0.03796203796203796</v>
       </c>
       <c r="E213" t="n">
-        <v>0.9040959040959041</v>
+        <v>0.962037962037962</v>
       </c>
       <c r="F213" t="n">
-        <v>44.578125</v>
+        <v>84.609375</v>
       </c>
     </row>
     <row r="214">
@@ -5130,13 +5130,13 @@
         <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0899100899100899</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9100899100899101</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="F214" t="n">
-        <v>43.640625</v>
+        <v>85.15625</v>
       </c>
     </row>
     <row r="215">
@@ -5152,13 +5152,13 @@
         <v>25</v>
       </c>
       <c r="D215" t="n">
-        <v>0.0919080919080919</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9080919080919081</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="F215" t="n">
-        <v>43.875</v>
+        <v>84.40625</v>
       </c>
     </row>
     <row r="216">
@@ -5174,13 +5174,13 @@
         <v>25</v>
       </c>
       <c r="D216" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.03696303696303696</v>
       </c>
       <c r="E216" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.9630369630369631</v>
       </c>
       <c r="F216" t="n">
-        <v>43.65625</v>
+        <v>84.390625</v>
       </c>
     </row>
     <row r="217">
@@ -5196,13 +5196,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="n">
-        <v>0.08491508491508491</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E217" t="n">
-        <v>0.9150849150849151</v>
+        <v>0.961038961038961</v>
       </c>
       <c r="F217" t="n">
-        <v>43</v>
+        <v>85.671875</v>
       </c>
     </row>
     <row r="218">
@@ -5218,13 +5218,13 @@
         <v>25</v>
       </c>
       <c r="D218" t="n">
-        <v>0.07992007992007992</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="E218" t="n">
-        <v>0.9200799200799201</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="F218" t="n">
-        <v>43.3125</v>
+        <v>85.046875</v>
       </c>
     </row>
     <row r="219">
@@ -5240,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="D219" t="n">
-        <v>0.08191808191808192</v>
+        <v>0.03396603396603397</v>
       </c>
       <c r="E219" t="n">
-        <v>0.9180819180819181</v>
+        <v>0.9660339660339661</v>
       </c>
       <c r="F219" t="n">
-        <v>43.609375</v>
+        <v>85.546875</v>
       </c>
     </row>
     <row r="220">
@@ -5262,13 +5262,13 @@
         <v>25</v>
       </c>
       <c r="D220" t="n">
-        <v>0.07892107892107893</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9210789210789211</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="F220" t="n">
-        <v>43.640625</v>
+        <v>85.09375</v>
       </c>
     </row>
     <row r="221">
@@ -5284,13 +5284,13 @@
         <v>25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.08391608391608392</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="E221" t="n">
-        <v>0.916083916083916</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="F221" t="n">
-        <v>43.46875</v>
+        <v>84.265625</v>
       </c>
     </row>
     <row r="222">
@@ -5306,13 +5306,13 @@
         <v>25</v>
       </c>
       <c r="D222" t="n">
-        <v>0.1078921078921079</v>
+        <v>0.04295704295704296</v>
       </c>
       <c r="E222" t="n">
-        <v>0.8921078921078921</v>
+        <v>0.9570429570429571</v>
       </c>
       <c r="F222" t="n">
-        <v>43.171875</v>
+        <v>84.453125</v>
       </c>
     </row>
     <row r="223">
@@ -5328,13 +5328,13 @@
         <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1028971028971029</v>
+        <v>0.03396603396603397</v>
       </c>
       <c r="E223" t="n">
-        <v>0.8971028971028971</v>
+        <v>0.9660339660339661</v>
       </c>
       <c r="F223" t="n">
-        <v>42.84375</v>
+        <v>83.875</v>
       </c>
     </row>
     <row r="224">
@@ -5350,13 +5350,13 @@
         <v>25</v>
       </c>
       <c r="D224" t="n">
-        <v>0.1048951048951049</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="E224" t="n">
-        <v>0.8951048951048951</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="F224" t="n">
-        <v>43.234375</v>
+        <v>83.34375</v>
       </c>
     </row>
     <row r="225">
@@ -5372,13 +5372,13 @@
         <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0919080919080919</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="E225" t="n">
-        <v>0.9080919080919081</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="F225" t="n">
-        <v>42.8125</v>
+        <v>82.234375</v>
       </c>
     </row>
     <row r="226">
@@ -5394,13 +5394,13 @@
         <v>25</v>
       </c>
       <c r="D226" t="n">
-        <v>0.08191808191808192</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E226" t="n">
-        <v>0.9180819180819181</v>
+        <v>0.961038961038961</v>
       </c>
       <c r="F226" t="n">
-        <v>42.59375</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="227">
@@ -5416,13 +5416,13 @@
         <v>25</v>
       </c>
       <c r="D227" t="n">
-        <v>0.2347652347652348</v>
+        <v>0.2007992007992008</v>
       </c>
       <c r="E227" t="n">
-        <v>0.7652347652347652</v>
+        <v>0.7992007992007992</v>
       </c>
       <c r="F227" t="n">
-        <v>44.25</v>
+        <v>84.96875</v>
       </c>
     </row>
     <row r="228">
@@ -5438,13 +5438,13 @@
         <v>25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.2017982017982018</v>
       </c>
       <c r="E228" t="n">
-        <v>0.7582417582417582</v>
+        <v>0.7982017982017982</v>
       </c>
       <c r="F228" t="n">
-        <v>45.328125</v>
+        <v>85.953125</v>
       </c>
     </row>
     <row r="229">
@@ -5460,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="D229" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="E229" t="n">
-        <v>0.7582417582417582</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="F229" t="n">
-        <v>44.546875</v>
+        <v>85.984375</v>
       </c>
     </row>
     <row r="230">
@@ -5482,13 +5482,13 @@
         <v>25</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2677322677322677</v>
+        <v>0.1728271728271728</v>
       </c>
       <c r="E230" t="n">
-        <v>0.7322677322677322</v>
+        <v>0.8271728271728271</v>
       </c>
       <c r="F230" t="n">
-        <v>43.890625</v>
+        <v>85.3125</v>
       </c>
     </row>
     <row r="231">
@@ -5504,13 +5504,13 @@
         <v>25</v>
       </c>
       <c r="D231" t="n">
-        <v>0.2497502497502498</v>
+        <v>0.2277722277722278</v>
       </c>
       <c r="E231" t="n">
-        <v>0.7502497502497503</v>
+        <v>0.7722277722277723</v>
       </c>
       <c r="F231" t="n">
-        <v>44.84375</v>
+        <v>85.78125</v>
       </c>
     </row>
     <row r="232">
@@ -5526,13 +5526,13 @@
         <v>25</v>
       </c>
       <c r="D232" t="n">
-        <v>0.2437562437562437</v>
+        <v>0.1768231768231768</v>
       </c>
       <c r="E232" t="n">
-        <v>0.7562437562437563</v>
+        <v>0.8231768231768232</v>
       </c>
       <c r="F232" t="n">
-        <v>44</v>
+        <v>86.453125</v>
       </c>
     </row>
     <row r="233">
@@ -5548,13 +5548,13 @@
         <v>25</v>
       </c>
       <c r="D233" t="n">
-        <v>0.2527472527472527</v>
+        <v>0.1808191808191808</v>
       </c>
       <c r="E233" t="n">
-        <v>0.7472527472527473</v>
+        <v>0.8191808191808192</v>
       </c>
       <c r="F233" t="n">
-        <v>44.71875</v>
+        <v>86.125</v>
       </c>
     </row>
     <row r="234">
@@ -5570,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="D234" t="n">
-        <v>0.2357642357642358</v>
+        <v>0.2257742257742258</v>
       </c>
       <c r="E234" t="n">
-        <v>0.7642357642357642</v>
+        <v>0.7742257742257742</v>
       </c>
       <c r="F234" t="n">
-        <v>43.96875</v>
+        <v>85.0625</v>
       </c>
     </row>
     <row r="235">
@@ -5592,13 +5592,13 @@
         <v>25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.2287712287712288</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="E235" t="n">
-        <v>0.7712287712287712</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="F235" t="n">
-        <v>43.84375</v>
+        <v>86.46875</v>
       </c>
     </row>
     <row r="236">
@@ -5614,13 +5614,13 @@
         <v>25</v>
       </c>
       <c r="D236" t="n">
-        <v>0.2457542457542458</v>
+        <v>0.1918081918081918</v>
       </c>
       <c r="E236" t="n">
-        <v>0.7542457542457542</v>
+        <v>0.8081918081918081</v>
       </c>
       <c r="F236" t="n">
-        <v>44.421875</v>
+        <v>86.21875</v>
       </c>
     </row>
     <row r="237">
@@ -5636,13 +5636,13 @@
         <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>0.2497502497502498</v>
+        <v>0.1878121878121878</v>
       </c>
       <c r="E237" t="n">
-        <v>0.7502497502497503</v>
+        <v>0.8121878121878122</v>
       </c>
       <c r="F237" t="n">
-        <v>43.90625</v>
+        <v>85.609375</v>
       </c>
     </row>
     <row r="238">
@@ -5658,13 +5658,13 @@
         <v>25</v>
       </c>
       <c r="D238" t="n">
-        <v>0.2507492507492508</v>
+        <v>0.1998001998001998</v>
       </c>
       <c r="E238" t="n">
-        <v>0.7492507492507493</v>
+        <v>0.8001998001998002</v>
       </c>
       <c r="F238" t="n">
-        <v>44.21875</v>
+        <v>86.171875</v>
       </c>
     </row>
     <row r="239">
@@ -5680,13 +5680,13 @@
         <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>0.2107892107892108</v>
+        <v>0.1918081918081918</v>
       </c>
       <c r="E239" t="n">
-        <v>0.7892107892107892</v>
+        <v>0.8081918081918081</v>
       </c>
       <c r="F239" t="n">
-        <v>44.328125</v>
+        <v>85.515625</v>
       </c>
     </row>
     <row r="240">
@@ -5702,13 +5702,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="E240" t="n">
-        <v>0.7582417582417582</v>
+        <v>0.7912087912087912</v>
       </c>
       <c r="F240" t="n">
-        <v>43.640625</v>
+        <v>84.578125</v>
       </c>
     </row>
     <row r="241">
@@ -5724,13 +5724,13 @@
         <v>25</v>
       </c>
       <c r="D241" t="n">
-        <v>0.2577422577422577</v>
+        <v>0.2057942057942058</v>
       </c>
       <c r="E241" t="n">
-        <v>0.7422577422577422</v>
+        <v>0.7942057942057942</v>
       </c>
       <c r="F241" t="n">
-        <v>43.75</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="242">
@@ -5746,13 +5746,13 @@
         <v>25</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2217782217782218</v>
+        <v>0.2177822177822178</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7782217782217782</v>
+        <v>0.7822177822177823</v>
       </c>
       <c r="F242" t="n">
-        <v>44.25</v>
+        <v>84.484375</v>
       </c>
     </row>
     <row r="243">
@@ -5768,13 +5768,13 @@
         <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>0.2477522477522477</v>
+        <v>0.2367632367632368</v>
       </c>
       <c r="E243" t="n">
-        <v>0.7522477522477522</v>
+        <v>0.7632367632367633</v>
       </c>
       <c r="F243" t="n">
-        <v>43.90625</v>
+        <v>85.65625</v>
       </c>
     </row>
     <row r="244">
@@ -5790,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="D244" t="n">
-        <v>0.2477522477522477</v>
+        <v>0.2007992007992008</v>
       </c>
       <c r="E244" t="n">
-        <v>0.7522477522477522</v>
+        <v>0.7992007992007992</v>
       </c>
       <c r="F244" t="n">
-        <v>44.125</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="245">
@@ -5812,13 +5812,13 @@
         <v>25</v>
       </c>
       <c r="D245" t="n">
-        <v>0.2107892107892108</v>
+        <v>0.1938061938061938</v>
       </c>
       <c r="E245" t="n">
-        <v>0.7892107892107892</v>
+        <v>0.8061938061938062</v>
       </c>
       <c r="F245" t="n">
-        <v>43.8125</v>
+        <v>85.625</v>
       </c>
     </row>
     <row r="246">
@@ -5834,13 +5834,13 @@
         <v>25</v>
       </c>
       <c r="D246" t="n">
-        <v>0.2397602397602398</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="E246" t="n">
-        <v>0.7602397602397603</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="F246" t="n">
-        <v>44.25</v>
+        <v>85.671875</v>
       </c>
     </row>
     <row r="247">
@@ -5856,13 +5856,13 @@
         <v>25</v>
       </c>
       <c r="D247" t="n">
-        <v>0.2427572427572428</v>
+        <v>0.1928071928071928</v>
       </c>
       <c r="E247" t="n">
-        <v>0.7572427572427572</v>
+        <v>0.8071928071928072</v>
       </c>
       <c r="F247" t="n">
-        <v>43.734375</v>
+        <v>84.21875</v>
       </c>
     </row>
     <row r="248">
@@ -5878,13 +5878,13 @@
         <v>25</v>
       </c>
       <c r="D248" t="n">
-        <v>0.2357642357642358</v>
+        <v>0.2127872127872128</v>
       </c>
       <c r="E248" t="n">
-        <v>0.7642357642357642</v>
+        <v>0.7872127872127872</v>
       </c>
       <c r="F248" t="n">
-        <v>43.3125</v>
+        <v>85.53125</v>
       </c>
     </row>
     <row r="249">
@@ -5900,13 +5900,13 @@
         <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.2527472527472527</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="E249" t="n">
-        <v>0.7472527472527473</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="F249" t="n">
-        <v>43.34375</v>
+        <v>85.1875</v>
       </c>
     </row>
     <row r="250">
@@ -5922,13 +5922,13 @@
         <v>25</v>
       </c>
       <c r="D250" t="n">
-        <v>0.2087912087912088</v>
+        <v>0.2247752247752248</v>
       </c>
       <c r="E250" t="n">
-        <v>0.7912087912087912</v>
+        <v>0.7752247752247752</v>
       </c>
       <c r="F250" t="n">
-        <v>42.875</v>
+        <v>84.3125</v>
       </c>
     </row>
     <row r="251">
@@ -5944,13 +5944,13 @@
         <v>25</v>
       </c>
       <c r="D251" t="n">
-        <v>0.2237762237762238</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="E251" t="n">
-        <v>0.7762237762237763</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="F251" t="n">
-        <v>43.0625</v>
+        <v>86.03125</v>
       </c>
     </row>
   </sheetData>
